--- a/DataDriven_FrameWork/FileOutput/AddEmployee_Result.xlsx
+++ b/DataDriven_FrameWork/FileOutput/AddEmployee_Result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Selenium_Proj\DataDriven_FrameWork\FileInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\DataDriven_FrameWork\DataDriven_FrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>FirstName</t>
   </si>
@@ -90,114 +90,6 @@
   </si>
   <si>
     <t>Senapati6</t>
-  </si>
-  <si>
-    <t>Alok7</t>
-  </si>
-  <si>
-    <t>Kumar7</t>
-  </si>
-  <si>
-    <t>Senapati7</t>
-  </si>
-  <si>
-    <t>Alok8</t>
-  </si>
-  <si>
-    <t>Kumar8</t>
-  </si>
-  <si>
-    <t>Senapati8</t>
-  </si>
-  <si>
-    <t>Alok9</t>
-  </si>
-  <si>
-    <t>Kumar9</t>
-  </si>
-  <si>
-    <t>Senapati9</t>
-  </si>
-  <si>
-    <t>Alok10</t>
-  </si>
-  <si>
-    <t>Kumar10</t>
-  </si>
-  <si>
-    <t>Senapati10</t>
-  </si>
-  <si>
-    <t>Alok11</t>
-  </si>
-  <si>
-    <t>Kumar11</t>
-  </si>
-  <si>
-    <t>Senapati11</t>
-  </si>
-  <si>
-    <t>Alok12</t>
-  </si>
-  <si>
-    <t>Kumar12</t>
-  </si>
-  <si>
-    <t>Senapati12</t>
-  </si>
-  <si>
-    <t>Alok13</t>
-  </si>
-  <si>
-    <t>Kumar13</t>
-  </si>
-  <si>
-    <t>Senapati13</t>
-  </si>
-  <si>
-    <t>Alok14</t>
-  </si>
-  <si>
-    <t>Kumar14</t>
-  </si>
-  <si>
-    <t>Senapati14</t>
-  </si>
-  <si>
-    <t>Alok15</t>
-  </si>
-  <si>
-    <t>Kumar15</t>
-  </si>
-  <si>
-    <t>Senapati15</t>
-  </si>
-  <si>
-    <t>Alok16</t>
-  </si>
-  <si>
-    <t>Kumar16</t>
-  </si>
-  <si>
-    <t>Senapati16</t>
-  </si>
-  <si>
-    <t>Alok17</t>
-  </si>
-  <si>
-    <t>Kumar17</t>
-  </si>
-  <si>
-    <t>Senapati17</t>
-  </si>
-  <si>
-    <t>Alok18</t>
-  </si>
-  <si>
-    <t>Kumar18</t>
-  </si>
-  <si>
-    <t>Senapati18</t>
   </si>
   <si>
     <t>pass</t>
@@ -208,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,78 +122,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -381,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -392,18 +212,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -737,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -751,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -765,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -779,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -793,175 +601,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/DataDriven_FrameWork/FileOutput/AddEmployee_Result.xlsx
+++ b/DataDriven_FrameWork/FileOutput/AddEmployee_Result.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="4524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="4524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="addemployee" sheetId="1" r:id="rId1"/>
+    <sheet name="Candidate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -90,6 +91,45 @@
   </si>
   <si>
     <t>Senapati6</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>KeyBoard</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Alok</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Senapati</t>
+  </si>
+  <si>
+    <t>aloksenapati78@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is </t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Asish</t>
+  </si>
+  <si>
+    <t>asish@gmail.com</t>
+  </si>
+  <si>
+    <t>That is</t>
   </si>
   <si>
     <t>pass</t>
@@ -100,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +159,29 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,22 +261,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,8 +598,8 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -544,8 +612,8 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -558,8 +626,8 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -572,8 +640,8 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -586,8 +654,8 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -600,12 +668,190 @@
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>22</v>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.88671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.88671875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.88671875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.21875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7205767365</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7205767148</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7205767149</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7205767150</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7205767151</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+</worksheet>
 </file>